--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Google Drive\2018.WRI-EPS2\0.Documentos trabajo modelo\eps-1.3.2-us-wipG\InputData\bldgs\FoBObE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="23955" windowHeight="12840"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="23955" windowHeight="12840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Residential" sheetId="2" r:id="rId2"/>
-    <sheet name="Commercial" sheetId="3" r:id="rId3"/>
+    <sheet name="Commercial BNE MEX" sheetId="5" r:id="rId3"/>
     <sheet name="FoBObE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Sources:</t>
   </si>
@@ -37,12 +42,6 @@
     <t>Table 2.1.14</t>
   </si>
   <si>
-    <t>http://buildingsdatabook.eren.doe.gov/TableView.aspx?table=3.2.3</t>
-  </si>
-  <si>
-    <t>Table 3.2.3, Column 2 (ownership)</t>
-  </si>
-  <si>
     <t>2.1.14</t>
   </si>
   <si>
@@ -121,60 +120,6 @@
     <t>Converting percentage of energy consumption (by ownership) to percentage of floor area (by ownership):</t>
   </si>
   <si>
-    <t>3.2.3</t>
-  </si>
-  <si>
-    <t>Number of Floors and Type of Ownership, as of 2003 (Percent of Total Floorspace)</t>
-  </si>
-  <si>
-    <t>Floors</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>Nongovernment Owned</t>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>Owner-Occupied</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>Nonowner-Occupied</t>
-  </si>
-  <si>
-    <t>Four to Nine</t>
-  </si>
-  <si>
-    <t>Unoccupied</t>
-  </si>
-  <si>
-    <t>Ten or More</t>
-  </si>
-  <si>
-    <t>Government Owned</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Federal</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>EIA, Commercial Building Characteristics 2003, June 2006, Table C1.</t>
-  </si>
-  <si>
     <t>All owner-occupied housing belongs to consumers.</t>
   </si>
   <si>
@@ -197,19 +142,43 @@
   </si>
   <si>
     <t>Rural Residential</t>
+  </si>
+  <si>
+    <t>SPLIT EDIFICIOS COMERCIALES</t>
+  </si>
+  <si>
+    <t>PUBLICO</t>
+  </si>
+  <si>
+    <t>PRIVADO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Balance Nacional de Energía 2010</t>
+  </si>
+  <si>
+    <t>SENER</t>
+  </si>
+  <si>
+    <t>Balance Nacional de Energía (BNE)</t>
+  </si>
+  <si>
+    <t>http://www.cie.unam.mx/~rbb/ERyS2013-1/BalanceNacionaldeEnergia2010_2.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,12 +236,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -300,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -450,14 +413,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -482,10 +488,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -508,63 +514,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -593,18 +561,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,12 +582,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -659,7 +632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,9 +665,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,6 +717,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -903,11 +910,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="67.140625" customWidth="1"/>
@@ -916,7 +925,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,7 +948,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,36 +968,30 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -998,7 +1001,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -1011,22 +1014,22 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+        <v>6</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1054,64 +1057,64 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="64"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="65" t="s">
+      <c r="G6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="12" t="s">
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="66"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1140,7 +1143,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1169,7 +1172,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1198,7 +1201,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1267,91 +1270,91 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
+        <v>21</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="58"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="60"/>
+        <v>23</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="40"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1360,7 +1363,7 @@
         <v>Ownership</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1408,22 +1411,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G30" s="27">
         <v>0.75</v>
@@ -1431,7 +1434,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G31" s="27">
         <f>1-G30</f>
@@ -1441,15 +1444,15 @@
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="32">
         <f>C23</f>
@@ -1458,7 +1461,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="33">
         <f>C24*G31</f>
@@ -1467,7 +1470,7 @@
     </row>
     <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="34">
         <f>C21+(C24*G30)</f>
@@ -1494,399 +1497,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="44"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="45">
-        <v>0.4010403803408249</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="47">
-        <v>0.76285811311434926</v>
-      </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="41"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="45">
-        <v>0.25114225734749318</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="48" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="49">
-        <v>0.36414855519881451</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="45">
-        <v>0.11578476166954804</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="48" t="s">
+      <c r="C3" s="50">
+        <v>27.797239439999998</v>
+      </c>
+      <c r="D3" s="50">
+        <v>0.17816655716011276</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="49">
-        <v>0.36913435416152135</v>
-      </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="C4" s="54">
+        <v>128.22103853019999</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0.82183344283988724</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="45">
-        <v>0.15567115337120277</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="48" t="s">
+      <c r="C5" s="52">
+        <v>156.01827797019999</v>
+      </c>
+      <c r="D5" s="51"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="49">
-        <v>2.9575203754013336E-2</v>
-      </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="51">
-        <v>7.6361447270931096E-2</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="47">
-        <v>0.23714188688565077</v>
-      </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="45">
-        <v>1</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="45">
-        <v>3.0192640158063718E-2</v>
-      </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="41"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="45">
-        <v>4.8779945665596444E-2</v>
-      </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="41"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="51">
-        <v>0.14816930106199061</v>
-      </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="41"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="49">
-        <v>1</v>
-      </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="41"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="41"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="68"/>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="32">
-        <f>K10</f>
-        <v>0.23714188688565077</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="33">
-        <f>K6</f>
-        <v>0.76285811311434926</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="34">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B16:Q16"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1897,9 +1561,11 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -1909,66 +1575,65 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="56">
+        <v>28</v>
+      </c>
+      <c r="B2" s="36">
         <f>Residential!C34</f>
         <v>1.9289972368294446E-2</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="36">
         <f>B2</f>
         <v>1.9289972368294446E-2</v>
       </c>
-      <c r="D2" s="56">
-        <f>Commercial!C20</f>
-        <v>0.23714188688565077</v>
+      <c r="D2" s="36">
+        <f>'Commercial BNE MEX'!D3</f>
+        <v>0.17816655716011276</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="56">
+        <v>29</v>
+      </c>
+      <c r="B3" s="36">
         <f>Residential!C35</f>
         <v>3.6530988312536733E-2</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="36">
         <f t="shared" ref="C3:C4" si="0">B3</f>
         <v>3.6530988312536733E-2</v>
       </c>
-      <c r="D3" s="56">
-        <f>Commercial!C21</f>
-        <v>0.76285811311434926</v>
+      <c r="D3" s="36">
+        <f>'Commercial BNE MEX'!D4</f>
+        <v>0.82183344283988724</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="56">
+        <v>30</v>
+      </c>
+      <c r="B4" s="36">
         <f>Residential!C36</f>
         <v>0.94417903931916869</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="36">
         <f t="shared" si="0"/>
         <v>0.94417903931916869</v>
       </c>
       <c r="D4">
-        <f>Commercial!C22</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -1,28 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Google Drive\2018.WRI-EPS2\0.Documentos trabajo modelo\eps-1.3.2-us-wipG\InputData\bldgs\FoBObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\bldgs\FoBObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5D1B2A-0F82-4946-A7E8-65637F63812F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="23955" windowHeight="12840" activeTab="3"/>
+    <workbookView xWindow="16455" yWindow="150" windowWidth="29520" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Residential" sheetId="2" r:id="rId2"/>
-    <sheet name="Commercial BNE MEX" sheetId="5" r:id="rId3"/>
+    <sheet name="Commercial" sheetId="3" r:id="rId3"/>
     <sheet name="FoBObE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="outputfrac_bio">#REF!</definedName>
+    <definedName name="outputfrac_coal">#REF!</definedName>
+    <definedName name="outputfrac_elec">#REF!</definedName>
+    <definedName name="outputfrac_ngps">#REF!</definedName>
+    <definedName name="outputfrac_nonenergy">#REF!</definedName>
+    <definedName name="outputfrac_other">#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Sources:</t>
   </si>
@@ -42,6 +62,12 @@
     <t>Table 2.1.14</t>
   </si>
   <si>
+    <t>http://buildingsdatabook.eren.doe.gov/TableView.aspx?table=3.2.3</t>
+  </si>
+  <si>
+    <t>Table 3.2.3, Column 2 (ownership)</t>
+  </si>
+  <si>
     <t>2.1.14</t>
   </si>
   <si>
@@ -120,6 +146,60 @@
     <t>Converting percentage of energy consumption (by ownership) to percentage of floor area (by ownership):</t>
   </si>
   <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>Number of Floors and Type of Ownership, as of 2003 (Percent of Total Floorspace)</t>
+  </si>
+  <si>
+    <t>Floors</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Nongovernment Owned</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Owner-Occupied</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Nonowner-Occupied</t>
+  </si>
+  <si>
+    <t>Four to Nine</t>
+  </si>
+  <si>
+    <t>Unoccupied</t>
+  </si>
+  <si>
+    <t>Ten or More</t>
+  </si>
+  <si>
+    <t>Government Owned</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Federal</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>EIA, Commercial Building Characteristics 2003, June 2006, Table C1.</t>
+  </si>
+  <si>
     <t>All owner-occupied housing belongs to consumers.</t>
   </si>
   <si>
@@ -132,9 +212,6 @@
     <t>FoBObE Fraction of Buildings Owned by Entity</t>
   </si>
   <si>
-    <t>Cash Flow Entity</t>
-  </si>
-  <si>
     <t>Buildings Energy Data Book (2011 edition)</t>
   </si>
   <si>
@@ -144,41 +221,41 @@
     <t>Rural Residential</t>
   </si>
   <si>
-    <t>SPLIT EDIFICIOS COMERCIALES</t>
-  </si>
-  <si>
-    <t>PUBLICO</t>
-  </si>
-  <si>
-    <t>PRIVADO</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Balance Nacional de Energía 2010</t>
-  </si>
-  <si>
-    <t>SENER</t>
-  </si>
-  <si>
-    <t>Balance Nacional de Energía (BNE)</t>
-  </si>
-  <si>
-    <t>http://www.cie.unam.mx/~rbb/ERyS2013-1/BalanceNacionaldeEnergia2010_2.pdf</t>
+    <t>foreign entities</t>
+  </si>
+  <si>
+    <t>labor and consumers</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>In the output tab, we show more decimal places than the source data</t>
+  </si>
+  <si>
+    <t>add to 1).</t>
+  </si>
+  <si>
+    <t>provide in order to avoid rounding error in Vensim (each column must</t>
+  </si>
+  <si>
+    <t>Ownership by Cash Flow Entity (dimensionless)</t>
+  </si>
+  <si>
+    <t>domestic industries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +313,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -263,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -413,57 +504,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -488,10 +536,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -514,24 +562,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -561,20 +648,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -590,7 +678,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -909,14 +997,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="67.140625" customWidth="1"/>
@@ -925,7 +1011,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -948,7 +1034,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -968,40 +1054,66 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -1014,22 +1126,22 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1057,64 +1169,64 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="C5" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="G5" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="K5" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="O5" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+        <v>15</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="K6" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="46"/>
+      <c r="O6" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="67"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1143,7 +1255,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1172,7 +1284,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1201,7 +1313,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1270,91 +1382,91 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
+        <v>23</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="59"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="59"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="38"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="40"/>
+        <v>25</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="61"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1363,7 +1475,7 @@
         <v>Ownership</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1411,22 +1523,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G30" s="27">
         <v>0.75</v>
@@ -1434,7 +1546,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G31" s="27">
         <f>1-G30</f>
@@ -1444,15 +1556,15 @@
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C34" s="32">
         <f>C23</f>
@@ -1461,7 +1573,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C35" s="33">
         <f>C24*G31</f>
@@ -1470,7 +1582,7 @@
     </row>
     <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C36" s="34">
         <f>C21+(C24*G30)</f>
@@ -1496,148 +1608,502 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="45">
+        <v>0.4010403803408249</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="47">
+        <v>0.76285811311434926</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="45">
+        <v>0.25114225734749318</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="49">
+        <v>0.36414855519881451</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="50">
-        <v>27.797239439999998</v>
-      </c>
-      <c r="D3" s="50">
-        <v>0.17816655716011276</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="45">
+        <v>0.11578476166954804</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="54">
-        <v>128.22103853019999</v>
-      </c>
-      <c r="D4" s="54">
-        <v>0.82183344283988724</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="49">
+        <v>0.36913435416152135</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="52">
-        <v>156.01827797019999</v>
-      </c>
-      <c r="D5" s="51"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="45">
+        <v>0.15567115337120277</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="48" t="s">
         <v>44</v>
       </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="49">
+        <v>2.9575203754013336E-2</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="51">
+        <v>7.6361447270931096E-2</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="47">
+        <v>0.23714188688565077</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="41"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="45">
+        <v>1</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="45">
+        <v>3.0192640158063718E-2</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="52"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="45">
+        <v>4.8779945665596444E-2</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="51">
+        <v>0.14816930106199061</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="41"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="49">
+        <v>1</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="41"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="41"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="69"/>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="32">
+        <f>K10</f>
+        <v>0.23714188688565077</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="33">
+        <f>K6</f>
+        <v>0.76285811311434926</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="34">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B16:Q16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="35" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="36">
+        <v>30</v>
+      </c>
+      <c r="B2" s="57">
         <f>Residential!C34</f>
         <v>1.9289972368294446E-2</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="57">
         <f>B2</f>
         <v>1.9289972368294446E-2</v>
       </c>
-      <c r="D2" s="36">
-        <f>'Commercial BNE MEX'!D3</f>
-        <v>0.17816655716011276</v>
+      <c r="D2" s="57">
+        <f>Commercial!C20</f>
+        <v>0.23714188688565077</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="36">
+        <v>66</v>
+      </c>
+      <c r="B3" s="57">
         <f>Residential!C35</f>
         <v>3.6530988312536733E-2</v>
       </c>
-      <c r="C3" s="36">
-        <f t="shared" ref="C3:C4" si="0">B3</f>
+      <c r="C3" s="57">
+        <f t="shared" ref="C3:C5" si="0">B3</f>
         <v>3.6530988312536733E-2</v>
       </c>
-      <c r="D3" s="36">
-        <f>'Commercial BNE MEX'!D4</f>
-        <v>0.82183344283988724</v>
+      <c r="D3" s="57">
+        <f>Commercial!$C$21</f>
+        <v>0.76285811311434926</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="36">
+        <v>60</v>
+      </c>
+      <c r="B4" s="57">
         <f>Residential!C36</f>
         <v>0.94417903931916869</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="57">
         <f t="shared" si="0"/>
         <v>0.94417903931916869</v>
       </c>
       <c r="D4">
+        <f>Commercial!C22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\bldgs\FoBObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/bldgs/FoBObE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5D1B2A-0F82-4946-A7E8-65637F63812F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42948964-DC2E-EF45-BE8C-2124C736370B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16455" yWindow="150" windowWidth="29520" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="6000" windowWidth="29520" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Residential" sheetId="2" r:id="rId2"/>
     <sheet name="Commercial" sheetId="3" r:id="rId3"/>
-    <sheet name="FoBObE" sheetId="4" r:id="rId4"/>
+    <sheet name="MEX Split" sheetId="5" r:id="rId4"/>
+    <sheet name="FoBObE" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="outputfrac_bio">#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>Sources:</t>
   </si>
@@ -53,21 +54,6 @@
     <t>Commercial</t>
   </si>
   <si>
-    <t>U.S. Department of Energy</t>
-  </si>
-  <si>
-    <t>http://buildingsdatabook.eren.doe.gov/TableView.aspx?table=2.1.14</t>
-  </si>
-  <si>
-    <t>Table 2.1.14</t>
-  </si>
-  <si>
-    <t>http://buildingsdatabook.eren.doe.gov/TableView.aspx?table=3.2.3</t>
-  </si>
-  <si>
-    <t>Table 3.2.3, Column 2 (ownership)</t>
-  </si>
-  <si>
     <t>2.1.14</t>
   </si>
   <si>
@@ -212,9 +198,6 @@
     <t>FoBObE Fraction of Buildings Owned by Entity</t>
   </si>
   <si>
-    <t>Buildings Energy Data Book (2011 edition)</t>
-  </si>
-  <si>
     <t>Urban Residential</t>
   </si>
   <si>
@@ -243,6 +226,45 @@
   </si>
   <si>
     <t>domestic industries</t>
+  </si>
+  <si>
+    <t>Balance Nacional de Energía (BNE)</t>
+  </si>
+  <si>
+    <t>http://www.cie.unam.mx/~rbb/ERyS2013-1/BalanceNacionaldeEnergia2010_2.pdf</t>
+  </si>
+  <si>
+    <t>Residential &amp; Commercial</t>
+  </si>
+  <si>
+    <t>SPLIT EDIFICIOS COMERCIALES</t>
+  </si>
+  <si>
+    <t>PUBLICO</t>
+  </si>
+  <si>
+    <t>PRIVADO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SENER - SIE Sistema de Información energética</t>
+  </si>
+  <si>
+    <t>Balance Nacional de Energía 2017-2019</t>
+  </si>
+  <si>
+    <t>SPLIT EDIFICIOS RESIDENCIALES</t>
+  </si>
+  <si>
+    <t>Residencial</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>Público</t>
   </si>
 </sst>
 </file>
@@ -253,9 +275,9 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +349,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -354,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -500,6 +528,49 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -511,7 +582,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -619,7 +690,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -654,15 +728,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -998,112 +1078,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="67.1640625" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>63</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1113,41 +1156,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
+        <v>3</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1166,67 +1209,67 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="63" t="s">
+      <c r="G6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="64" t="s">
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="66" t="s">
+      <c r="P6" s="67"/>
+      <c r="Q6" s="68"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="67"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1253,9 +1296,9 @@
       </c>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1282,9 +1325,9 @@
       </c>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1311,9 +1354,9 @@
       </c>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1340,7 +1383,7 @@
       </c>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1361,7 +1404,7 @@
       </c>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1380,105 +1423,105 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="59"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="59"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="59"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="61"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="62"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="str">
         <f>A6</f>
         <v>Ownership</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
         <f t="shared" ref="B21:B23" si="0">A7</f>
         <v>Owned</v>
@@ -1488,14 +1531,14 @@
         <v>0.83458607438155852</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>Rented</v>
       </c>
       <c r="C22" s="26"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Public Housing</v>
@@ -1505,7 +1548,7 @@
         <v>1.9289972368294446E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="str">
         <f>A10</f>
         <v>Not Public Housing</v>
@@ -1515,74 +1558,74 @@
         <v>0.14612395325014693</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C25" s="26">
         <f>SUM(C21:C24)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G30" s="27">
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G31" s="27">
         <f>1-G30</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="28" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C34" s="32">
         <f>C23</f>
         <v>1.9289972368294446E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C35" s="33">
         <f>C24*G31</f>
         <v>3.6530988312536733E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C36" s="34">
         <f>C21+(C24*G30)</f>
@@ -1613,23 +1656,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -1647,7 +1690,7 @@
       <c r="P3" s="37"/>
       <c r="Q3" s="38"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -1666,9 +1709,9 @@
       <c r="P4" s="40"/>
       <c r="Q4" s="41"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1676,7 +1719,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="42"/>
       <c r="G5" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -1689,9 +1732,9 @@
       <c r="P5" s="40"/>
       <c r="Q5" s="44"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -1701,7 +1744,7 @@
       <c r="E6" s="40"/>
       <c r="F6" s="13"/>
       <c r="G6" s="46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
@@ -1716,9 +1759,9 @@
       <c r="P6" s="40"/>
       <c r="Q6" s="41"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -1728,7 +1771,7 @@
       <c r="E7" s="40"/>
       <c r="F7" s="13"/>
       <c r="G7" s="48" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
@@ -1743,9 +1786,9 @@
       <c r="P7" s="40"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -1755,7 +1798,7 @@
       <c r="E8" s="40"/>
       <c r="F8" s="13"/>
       <c r="G8" s="48" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
@@ -1770,9 +1813,9 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="41"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -1782,7 +1825,7 @@
       <c r="E9" s="40"/>
       <c r="F9" s="13"/>
       <c r="G9" s="48" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
@@ -1797,9 +1840,9 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="41"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -1809,7 +1852,7 @@
       <c r="E10" s="40"/>
       <c r="F10" s="13"/>
       <c r="G10" s="46" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
@@ -1824,9 +1867,9 @@
       <c r="P10" s="40"/>
       <c r="Q10" s="41"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -1836,7 +1879,7 @@
       <c r="E11" s="40"/>
       <c r="F11" s="13"/>
       <c r="G11" s="48" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
@@ -1851,7 +1894,7 @@
       <c r="P11" s="40"/>
       <c r="Q11" s="41"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -1859,7 +1902,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="13"/>
       <c r="G12" s="48" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="40"/>
@@ -1874,7 +1917,7 @@
       <c r="P12" s="40"/>
       <c r="Q12" s="41"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -1882,7 +1925,7 @@
       <c r="E13" s="40"/>
       <c r="F13" s="13"/>
       <c r="G13" s="53" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
@@ -1897,7 +1940,7 @@
       <c r="P13" s="49"/>
       <c r="Q13" s="41"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -1905,7 +1948,7 @@
       <c r="E14" s="40"/>
       <c r="F14" s="13"/>
       <c r="G14" s="52" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
@@ -1920,7 +1963,7 @@
       <c r="P14" s="49"/>
       <c r="Q14" s="41"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -1939,59 +1982,59 @@
       <c r="P15" s="49"/>
       <c r="Q15" s="41"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="70"/>
+    </row>
+    <row r="18" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="30" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="69"/>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
-        <v>30</v>
       </c>
       <c r="C20" s="32">
         <f>K10</f>
         <v>0.23714188688565077</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C21" s="33">
         <f>K6</f>
         <v>0.76285811311434926</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C22" s="34">
         <v>0</v>
@@ -2006,90 +2049,251 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4650B03-E0A3-5D4F-B77E-09651BD6C4D7}">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="F2" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="74">
+        <f>SUM(D11:F11)/3-G3</f>
+        <v>6.1868000000000016</v>
+      </c>
+      <c r="D3" s="74">
+        <f>C3/C5</f>
+        <v>2.6842318085027003E-2</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="74">
+        <f>SUM(D11:F11)*0.8/3</f>
+        <v>24.747199999999996</v>
+      </c>
+      <c r="H3" s="74">
+        <f>G3/G5</f>
+        <v>0.15861731280438049</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="76">
+        <f>SUM(D9:F9)/3</f>
+        <v>224.29999999999998</v>
+      </c>
+      <c r="D4" s="76">
+        <f>C4/C5</f>
+        <v>0.97315768191497298</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="74">
+        <f>SUM(D10:F10)/3</f>
+        <v>87.112666666666669</v>
+      </c>
+      <c r="H4" s="76">
+        <f>G4/G5</f>
+        <v>0.5583491101171203</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="78">
+        <f>C3+C4</f>
+        <v>230.48679999999999</v>
+      </c>
+      <c r="D5" s="77"/>
+      <c r="F5" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="78">
+        <v>156.01827797019999</v>
+      </c>
+      <c r="H5" s="77"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79">
+        <v>212.95</v>
+      </c>
+      <c r="E9" s="79">
+        <v>227.80199999999999</v>
+      </c>
+      <c r="F9" s="79">
+        <v>232.148</v>
+      </c>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79">
+        <v>81.489999999999995</v>
+      </c>
+      <c r="E10" s="79">
+        <v>87.173000000000002</v>
+      </c>
+      <c r="F10" s="79">
+        <v>92.674999999999997</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79">
+        <v>28.917000000000002</v>
+      </c>
+      <c r="E11" s="79">
+        <v>30.934000000000001</v>
+      </c>
+      <c r="F11" s="79">
+        <v>32.951000000000001</v>
+      </c>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>65</v>
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>59</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="57">
-        <f>Residential!C34</f>
-        <v>1.9289972368294446E-2</v>
+        <f>'MEX Split'!D3</f>
+        <v>2.6842318085027003E-2</v>
       </c>
       <c r="C2" s="57">
         <f>B2</f>
-        <v>1.9289972368294446E-2</v>
+        <v>2.6842318085027003E-2</v>
       </c>
       <c r="D2" s="57">
-        <f>Commercial!C20</f>
-        <v>0.23714188688565077</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>'MEX Split'!H3</f>
+        <v>0.15861731280438049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3" s="57">
-        <f>Residential!C35</f>
-        <v>3.6530988312536733E-2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="57">
         <f t="shared" ref="C3:C5" si="0">B3</f>
-        <v>3.6530988312536733E-2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="57">
-        <f>Commercial!$C$21</f>
-        <v>0.76285811311434926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f>'MEX Split'!H4</f>
+        <v>0.5583491101171203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B4" s="57">
-        <f>Residential!C36</f>
-        <v>0.94417903931916869</v>
+        <f>'MEX Split'!D4</f>
+        <v>0.97315768191497298</v>
       </c>
       <c r="C4" s="57">
         <f t="shared" si="0"/>
-        <v>0.94417903931916869</v>
+        <v>0.97315768191497298</v>
       </c>
       <c r="D4">
         <f>Commercial!C22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
